--- a/accoj/deal_business/questions.xlsx
+++ b/accoj/deal_business/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Project\hnit-accoj\accoj\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Project\hnit-accoj\accoj\deal_business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAEA384-4493-4D0A-B879-166421BD85DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6723C1A-2A15-4A1B-96BF-F523CC8480C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0DD4778B-996A-43D7-B7B0-1040C3FD9CAF}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" xr2:uid="{0DD4778B-996A-43D7-B7B0-1040C3FD9CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,10 +453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产成本:+v1；管理费用:+v2；销售费用:+v3；银行存款:+(v1+v2+v3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产成本:+v1；管理费用:+v2；销售费用:+v3；累计折旧:+(v1+v2+v3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,6 +498,10 @@
   </si>
   <si>
     <t>8.key_elements和subjects部分`v`必须为小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产成本:+v1；管理费用:+v2；销售费用:+v3；银行存款:-(v1+v2+v3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,23 +916,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28653498-215D-450A-85C3-98222479FF19}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="67.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="96.44140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="67.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="96.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -955,7 +955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -978,7 +978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1136,10 +1136,10 @@
         <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1219,12 +1219,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -1239,7 +1239,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1299,12 +1299,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -1319,7 +1319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1399,12 +1399,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -1419,7 +1419,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1459,12 +1459,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -1479,7 +1479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1496,15 +1496,15 @@
         <v>63</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>21</v>
@@ -1516,15 +1516,15 @@
         <v>63</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
@@ -1539,7 +1539,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1559,12 +1559,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
@@ -1576,15 +1576,15 @@
         <v>66</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>22</v>
@@ -1596,10 +1596,10 @@
         <v>66</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>

--- a/accoj/deal_business/questions.xlsx
+++ b/accoj/deal_business/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Project\hnit-accoj\accoj\deal_business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6723C1A-2A15-4A1B-96BF-F523CC8480C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC2F940-509B-4314-B28E-300DB2C35E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" xr2:uid="{0DD4778B-996A-43D7-B7B0-1040C3FD9CAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0DD4778B-996A-43D7-B7B0-1040C3FD9CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,10 +383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>银行存款:-v2；原材料:+v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>银行存款:-v2；管理费用:+v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,6 +498,14 @@
   </si>
   <si>
     <t>生产成本:+v1；管理费用:+v2；销售费用:+v3；银行存款:-(v1+v2+v3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产:-v3；资产:+v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款:-v3；原材料:+v3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28653498-215D-450A-85C3-98222479FF19}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -934,7 +938,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -972,7 +976,7 @@
         <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>55</v>
@@ -1018,7 +1022,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -1136,7 +1140,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1224,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -1304,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -1376,7 +1380,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1404,7 +1408,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -1413,10 +1417,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1436,7 +1440,7 @@
         <v>61</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1456,7 +1460,7 @@
         <v>62</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1464,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -1476,7 +1480,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1496,7 +1500,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1504,7 +1508,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>21</v>
@@ -1516,7 +1520,7 @@
         <v>63</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1524,7 +1528,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
@@ -1536,7 +1540,7 @@
         <v>57</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1556,7 +1560,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1564,7 +1568,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
@@ -1576,7 +1580,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1584,7 +1588,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>22</v>
@@ -1596,7 +1600,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1616,7 +1620,7 @@
         <v>60</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1636,7 +1640,7 @@
         <v>67</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">

--- a/accoj/deal_business/questions.xlsx
+++ b/accoj/deal_business/questions.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Project\hnit-accoj\accoj\deal_business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Documents\Tencent Files\1848600800\FileRecv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC2F940-509B-4314-B28E-300DB2C35E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDEFEEF-AB39-4CEA-9BB5-56C9C6F6421D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0DD4778B-996A-43D7-B7B0-1040C3FD9CAF}"/>
+    <workbookView xWindow="-9825" yWindow="2235" windowWidth="21600" windowHeight="11835" xr2:uid="{0DD4778B-996A-43D7-B7B0-1040C3FD9CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,14 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资产:+(v2-v3)；资产:-(v2-v3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产:+v2；负债:+v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>销售员{杨}某向财务部报销差旅费，经会计人员审核，实际发生金额{10000}元，{多出/少于}借支额的以银行存款{偿还/支付}。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资产:+v3；负债:-v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资产:-v2；负债:-v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,18 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资产:+v2；负债:-v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产:+v3；收入:-v3；费用:+v4；资产:-v4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资产:+v1；负债:-v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>固定资产:+v3；实收资本:+v3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,35 +353,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存现金:-v2；其他应收款:+v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行存款:-v2；管理费用:+v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>销售费用:+v2；其他应收款:-v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产成本:+v2；销售费用:+v4；原材料:-(v2+v4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>库存商品:+v3；生产成本:-v3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>银行存款:+v2；预收账款:-v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>银行存款:-v2；销售费用:+v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行存款:+v1；应付职工薪酬:-v1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -441,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>银行存款:-v1；短期借款/长期借款:-v1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产成本:+v1；管理费用:+v2；销售费用:+v3；应付职工薪酬:+(v1+v2+v3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,14 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>银行存款:+v2；主营业务收入:-v2；主营业务成本:+v3；库存商品:-v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收账款:+v2；主营业务收入:-v2；主营业务成本:+v3；库存商品:-v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.key_elements和subjects部分`v`必须为小写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,11 +443,141 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资产:-v3；资产:+v3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行存款:-v3；原材料:+v3</t>
+    <t>资产:+v3；负债:+v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款:-v2；其他应收款:+v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产:-v2；资产:+v2</t>
+  </si>
+  <si>
+    <t>原材料:-v2；银行存款:+v2</t>
+  </si>
+  <si>
+    <t>银行存款:-v3；管理费用:+v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产:-v3；费用:+v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款:+v2；预收账款:+v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款:-v1；应付职工薪酬:-v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产:+v3；收入:+v3；费用:+v4；资产:-v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款:+v3；主营业务收入:+v3；主营业务成本:+v4；库存商品:-v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产:+v3；收入:+v3；费用:+v3；资产:-v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款:+v3；主营业务收入:+v3；主营业务成本:+v4；库存商品:-v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>资产:+v2；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有者权益:+v2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产:-v1；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负债:-v1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>银行存款:-v1；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>短期借款/长期借款:-v1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产:+(v2-v3)；资产:-(v2-v3)；收入:+v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>生产成本:+v2；销售费用:+v4；原材料:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-(v2+v4)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>资产:+v3；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负债:-v3</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +628,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -579,7 +658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,6 +681,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -920,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28653498-215D-450A-85C3-98222479FF19}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -938,7 +1020,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -973,13 +1055,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1016,13 +1098,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -1048,7 +1130,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1068,10 +1150,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1091,10 +1173,10 @@
         <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1114,10 +1196,10 @@
         <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1137,10 +1219,10 @@
         <v>45</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1160,7 +1242,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1180,7 +1262,7 @@
         <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1200,7 +1282,7 @@
         <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1220,7 +1302,7 @@
         <v>45</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1228,7 +1310,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -1237,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1260,7 +1342,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1277,10 +1359,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1297,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1308,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -1317,10 +1399,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1337,10 +1419,10 @@
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1357,10 +1439,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1374,13 +1456,13 @@
         <v>21</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1397,10 +1479,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1408,19 +1490,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1428,7 +1510,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
@@ -1436,11 +1518,11 @@
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>61</v>
+      <c r="E24" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1457,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1468,7 +1550,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -1477,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1497,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1508,7 +1590,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>21</v>
@@ -1517,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1528,7 +1610,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
@@ -1537,10 +1619,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1557,10 +1639,10 @@
         <v>3</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1568,7 +1650,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
@@ -1577,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1588,7 +1670,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>22</v>
@@ -1597,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>104</v>
@@ -1617,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1637,10 +1719,10 @@
         <v>4</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1661,6 +1743,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>